--- a/meta/program/BlancoRestGeneratorTelegramProcess.xlsx
+++ b/meta/program/BlancoRestGeneratorTelegramProcess.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EFDCD715-53A6-2643-B68A-3837FC1AD5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC64BE15-C543-3C4E-A3F8-22BB6369EEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="640"/>
+    <workbookView xWindow="0" yWindow="1620" windowWidth="18240" windowHeight="19980" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -211,94 +211,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>getRequestId</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>getResponseId</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>要求電文ID（GETメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>応答電文ID（GETメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>オウトウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要求電文ID（POSTメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>応答電文ID（POSTメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>オウトウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要求電文ID（PUTメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>応答電文ID（PUTメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>オウトウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要求電文ID（DELETEメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>応答電文ID（DELETEメソッド）</t>
-    <rPh sb="0" eb="4">
-      <t>オウトウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>postRequestId</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>postResponseId</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>putRequestId</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>putResponseId</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>deleteRequestId</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>deleteResponseId</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>superClass</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -322,13 +234,214 @@
   </si>
   <si>
     <t>BlancoRestGeneratorのなかで利用されるValueObjectです。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>listTelegrams</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new java.util.HashMap&lt;&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この電文処理が使用する電文の一覧</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">イチラｎ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>requestHeaderClass</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リクエスト電文のヘッダクラス名（Canonical）</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>responseHeaderClass</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レスポンス電文のヘッダクラス名（Canonical）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>packageSuffix</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パッケージ名の後ろに付加する文字列をしていします。</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">パッケージメイ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ウシロニ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">フカ </t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>overridePackage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>定義書で指定されたパッケージ名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>overrideLocation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>定義書で指定されたロケーション名を上書きします。</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ウワガキシマス。 </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>basedir</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本番時にファイルを配置する歳のベースディレクトリ。主にTypeScriptのimport文生成時に使用する事を想定しています。</t>
+  </si>
+  <si>
+    <t>impleDirKt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>APIの実装クラス（Micronautの場合は委譲クラス）配置ディレクトリ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>annotationList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>java.util.List&lt;java.lang.String&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>new java.util.ArrayList&lt;java.lang.String&gt;()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クラスのアノテーションを指定します。</t>
+    <rPh sb="12" eb="14">
+      <t>シテイシマス。</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>metaIdList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カンマ区切りで記述された文字列が、配列情報として生成されます</t>
+    <rPh sb="12" eb="14">
+      <t>シテイシマス。</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>createImportList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>TypeScript 独自。blancoで一括生成されたクラスについて、import文を自動生成します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>extends</t>
+  </si>
+  <si>
+    <t>継承するクラスを指定します。</t>
+  </si>
+  <si>
+    <t>implementsList</t>
+  </si>
+  <si>
+    <t>実装するインタフェース(java.lang.String)の一覧。</t>
+  </si>
+  <si>
+    <t>importList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>importを指定します。</t>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>headerList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>source コードの先頭に書かれるコード群です。</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">セントウ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">カカレル </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>java.util.HashMap&lt;java.lang.String, java.util.HashMap&lt;java.lang.String, blanco.restgenerator.valueobject.BlancoRestGeneratorTelegram&gt;&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -375,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -648,24 +761,65 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="dotted">
+        <color indexed="8"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="hair">
         <color indexed="8"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -673,17 +827,17 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -796,17 +950,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,11 +974,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1220,7 +1414,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1264,7 +1458,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1285,14 +1479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1336,7 +1530,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
@@ -1348,7 +1542,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="13" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="11"/>
@@ -1360,7 +1554,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1465,23 +1659,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1518,29 +1712,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="51" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1578,136 +1772,149 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="32">
-        <f>A28+1</f>
+        <f t="shared" ref="A29:A49" si="0">A28+1</f>
         <v>3</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D29" s="34"/>
-      <c r="E29" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="35"/>
+      <c r="E29" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="46"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="32">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="34" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="32">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F31" s="35"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="32">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F32" s="35"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" s="52" customFormat="1" ht="50" customHeight="1">
       <c r="A33" s="32">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C33" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="35"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="E33" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="59"/>
+    </row>
+    <row r="34" spans="1:7" s="52" customFormat="1" ht="50" customHeight="1">
       <c r="A34" s="32">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C34" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="34"/>
-      <c r="E34" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="35"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="E34" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="59"/>
+    </row>
+    <row r="35" spans="1:7" s="52" customFormat="1" ht="45">
       <c r="A35" s="32">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="35"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="B35" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" s="52" customFormat="1" ht="45">
       <c r="A36" s="32">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="35"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="47">
+      <c r="B36" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="62"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" s="52" customFormat="1">
+      <c r="A37" s="32">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B37" s="33" t="s">
@@ -1716,97 +1923,281 @@
       <c r="C37" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" s="34" t="s">
+      <c r="D37" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="35"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="47">
+      <c r="F37" s="65"/>
+    </row>
+    <row r="38" spans="1:7" s="52" customFormat="1" ht="15">
+      <c r="A38" s="32">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="34" t="s">
+      <c r="B38" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="55"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" s="52" customFormat="1" ht="15">
+      <c r="A39" s="32">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="54"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="47">
-        <v>13</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="34" t="s">
+      <c r="D39" s="53"/>
+      <c r="E39" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="55"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7" s="52" customFormat="1" ht="45" customHeight="1">
+      <c r="A40" s="32">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="66"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:7" s="52" customFormat="1" ht="45">
+      <c r="A41" s="32">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="55"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" s="52" customFormat="1" ht="45">
+      <c r="A42" s="32">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="68"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="32">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="35"/>
+    </row>
+    <row r="44" spans="1:7" s="52" customFormat="1">
+      <c r="A44" s="32">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="35"/>
+    </row>
+    <row r="45" spans="1:7" s="52" customFormat="1">
+      <c r="A45" s="32">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="35"/>
+    </row>
+    <row r="46" spans="1:7" s="52" customFormat="1">
+      <c r="A46" s="32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="35"/>
+    </row>
+    <row r="47" spans="1:7" s="52" customFormat="1" ht="15">
+      <c r="A47" s="32">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="56"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" s="52" customFormat="1" ht="15">
+      <c r="A48" s="32">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="56"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7" s="52" customFormat="1" ht="15">
+      <c r="A49" s="32">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="47">
-        <v>14</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="35"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="47">
-        <v>15</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="45" t="s">
+      <c r="B49" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="46"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="24">
-        <v>16</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25" t="s">
+      <c r="D49" s="34"/>
+      <c r="E49" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="37"/>
+      <c r="F49" s="56"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7" s="52" customFormat="1">
+      <c r="A50" s="32"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="56"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7" s="52" customFormat="1">
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="56"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="1:7" s="52" customFormat="1">
+      <c r="A52" s="24"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="37"/>
+      <c r="G52"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="26">
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -1820,23 +2211,23 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>adjustDefaultValue</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>adjustFiledName</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>createToString</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>accessScope2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>isAbstract</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1850,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
